--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-05_end.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-05_end.xlsx
@@ -44,7 +44,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Crownslayer is suddenly attacked. Swire tries to interrogate Lin Yuxia about the "Black Raincoat" troops, but the other party hangs up on her. Mephisto is taken away by Faust's crossbowmen.
+    <t xml:space="preserve">Crownslayer is suddenly attacked. Swire tries to interrogate Lin Yuxia about the 'Black Raincoat' troops, but the other party hangs up on her. Mephisto is taken away by Faust's crossbowmen.
 </t>
   </si>
   <si>
